--- a/estadoDelArte/mapasMentales/deteccionActividades/AnalisisDeteccionActividades.xlsx
+++ b/estadoDelArte/mapasMentales/deteccionActividades/AnalisisDeteccionActividades.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="true" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -19,16 +19,486 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+  <si>
+    <t xml:space="preserve">Titulo Artículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades identificadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bases de datos utilizadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismo de clasificación (Red neuronal, árbol de decisión…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados de precisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early detection of human actions—A hybrid approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekta Vats, Chee Seng Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ten natural actions such as: ‘run’, ‘walk’, ‘skip’,
+‘jack’ (jumping-jack), ‘jump’ (jump-forward-on-two-legs), ‘pjump’
+(jump-in-place-on-two-legs), ‘side’ (gallop-sideways), ‘wave2’
+(wave-two-hands), ‘wave1’ (waveone-hand), and ‘bend’ were per-
+formed by nine different people</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Weizmann human
+action dataset
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">http://www.wisdom.weizmann.ac.il/~vision/SpaceTimeActions.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinergia entre Vision artificial y conjuntos difusos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is required to set a fixed thresh-
+old value for all the actions in order to detect an action early. In
+the experiments, results were tested using different threshold val-
+ues i.e. 0.70, 0.75, 0.80, 0.85 and 0.90. Table 4 presents the results
+obtained, where ‘t’ refers to the threshold value and the last column
+represents the percentage of frames observed before the detec-
+tor triggers the action when the threshold was set to 0.70. It was
+observed that when the threshold was set to 0.70, the detector is
+able to detect all the actions performed upon seeing ∼23% of the
+frames on an average. Increasing the threshold to 0.75 misses the
+detection for only ‘run’ action, and able to make early detection for
+all other actions upon seeing ∼37% of the frames on average. With
+the threshold value set at 0.80, the detector successfully detects all
+actions except ‘bend’, ‘jump’, ‘run’, ‘walk’ and ‘wave1’, upon see-
+ing ∼60% of the frames on average. Even with the threshold value
+0.90, the detector is able to detect ‘jack’, ‘skip’ and ‘pjump’ action
+upon seeing ∼33%, ∼23%, and ∼52% of the frames respectively. Fig. 9
+highlights the experimental results, qualitatively for the ten action
+classes where the proposed detector detects an action upon observ-
+ing ∼23% of the frames (on average) when the membership function
+attains a certain threshold (e.g. 0.70 or 0.80) monotonically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action recognition using global spatio-temporal features derived
+from sparse representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guruprasad Somasundaram, Anoop Cherian, Vassilios Morellas, Nikolaos Papanikolopoulos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">We use the KTH actions dataset: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">walking, jogging, running, boxing, waving, and clapping
+UCF sports actions dataset: diving, Golf swinging, kicking, lifting, horseback riding, running, skating, swinging, and walking
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the Hollywood movie actions dataset: answering phone, getting out of car, handshaking, hugging, kissing, sitting down, sitting up, and standing up
+UCF 50 actions dataset: Baseball Pitch, Basketball Shooting, Bench Press, Biking, Biking, Bil-
+liards Shot,Breaststroke, Clean and Jerk, Diving, Drumming, Fenc-
+ing, Golf Swing, Playing Guitar, High Jump, Horse Race, Horse
+Riding, Hula Hoop, Javelin Throw, Juggling Balls, Jump Rope, Jump-
+ing Jack, Kayaking, Lunges, Military Parade, Mixing Batter, Nun
+chucks, Playing Piano, Pizza Tossing, Pole Vault, Pommel Horse,
+Pull Ups, Punch, Push Ups, Rock Climbing Indoor, Rope Climbing,
+Rowing, Salsa Spins, Skate Boarding, Skiing, Skijet, Soccer Juggling,
+Swing, Playing Tabla, TaiChi, Tennis Swing, Trampoline Jumping,
+Playing Violin, Volleyball Spiking, Walking with a dog, and Yo Yo
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We use the KTH actions dataset [23], the UCF sports action data-
+set [60], the Hollywood movie actions dataset [61], and the more
+recent and exhaustive UCF50 dataset [62]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83-90 %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal behavior recognition for intelligent video surveillance
+systems: A review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amira Ben Mabrouk ∗ , Ezzeddine Zagrouba</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UCSD ( Mahadevan et al., 2010 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-Peds1 : 70 videos (34 for training, 36 for testing), 238
+× 158 pixels
+-Peds 2 : 30 videos (16 for training, 14 for testing), 360
+× 240 pixels.
+-Normal events correspond to only pedestrians in the
+walkways.
+-Abnormal events belong to no pedestrians in the
+walkways such as bikers and skaters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UMN ( Ramin et al., 2009 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-11 videos from three different indoor and outdoor
+Scenes.
+-Resolution = 320 × 240 pixels.
+-Normal scenarios contains people that are walking in
+different directions.
+-Abnormal scenarios correspond to crowd dispersion.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Violent Flows ( Hassner et al., 2012a )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-246 videos (123 violence and 123 no violence).
+-Resolution = 320 × 240 pixels.
+-Collected from Youtube.
+-Designed for violence detection in crowded places.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Action movies ( Bermejo et al., 2011 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">200 videos (100 violence and 100 no violence).
+Videos from action movies.
+-Abnormal behaviors correspond to one to one fight.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Hockey Fight ( Bermejo et al., 2011 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-10 0 0 videos (500 violence and 500 no violence).
+-Resolution = 720 × 576 pixels.
+Designed for violence detection in uncrowded scene
+(ice hockey rink).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Web dataset ( Ramin et al., 2009 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">20 videos (8 for training and 12 for testing).
+-Different resolutions.
+-Normal scenarios correspond to normal pedestrians.
+Abnormal scenarios are clash, escape panic, fight, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSD ( Mahadevan et al., 2010 )
+UMN ( Ramin et al., 2009 )
+Violent Flows ( Hassner et al., 2012a )
+Action movies ( Bermejo et al., 2011 )
+Hockey Fight ( Bermejo et al., 2011 )
+Web dataset ( Ramin et al., 2009 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On an algorithm for human action recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suraj Prakash Sahoo ∗ , Samit Ari</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UT-Interaction dataset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The ‘UT Interaction’ dataset is a public
+video dataset containing high-level human actions of multiple ac-
+tors. It contains segmented actions of punching, handshaking, hug-
+ging, kicking, pushing, pointing , each of 10 sets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">J-HMDB dataset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The J-HMDB dataset contains single person inter-
+action. The dataset contains 21 categories involving a single person
+in action: brush hair, catch, clap, climb stairs, golf, jump, kick ball,
+pick, pour, pull-up, push, run, shoot ball, shoot bow, shoot gun, sit,
+stand, swing baseball, throw, walk, wave .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UCF101 dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. The UCF101 dataset is a more realistic dataset col-
+lected from YouTube. The dataset contains 101 action classes with
+13,320 video clips (1)Human-Object Interaction (2) Body-Motion Only (3) Human-
+Human Interaction (4) Playing Musical Instruments (5) Sports.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UT-Interaction dataset.
+J-HMDB dataset.
+UCF101 dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">62-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Discriminative Key Poses
+for Action Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Liu, Ling Shao, Senior Member, IEEE, Xiantong Zhen, and Xuelong Li, Fellow, IEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The KTH data set is a commonly used benchmark action data
+set with 599 video clips. Six human action classes, including
+walking, jogging, running, boxing, hand waving, and hand
+clapping, are performed by 25 subjects in four different scenar-
+ios: outdoors (s1), outdoors with scale variation (s2), outdoors
+with different clothes (s3), and indoors with lighting variation
+(s4)
+The Weizmann data set contains 93 video sequences showing
+nine different people, each of which performing ten differ-
+ent actions- 
+The IXMAS data set is a multiview data set that contains
+11 action classes.These actions are checking watch, crossing arms, scratching
+head, sitting down, getting up, turning around, walking, waving,
+punching, kicking, and picking up.
+The HMDB51 data set collects 6849 action sequences from
+various movies and online videos. In our case, we adopt
+2241 sequences from 19 body action categories (i.e., cartwheel,
+clap hands, climb, climb stairs, dive, fall on the floor, backhand
+flip, handstand, jump, pull up, push up, run, sit down, sit up,
+somersault, stand up, turn, walk, and wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXMAS DATA SET
+HMDB51 DATA SET
+WEIZMANN DATA SET
+KTH D ATA S ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49,3 – 94,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fully convolutional networks for action
+Recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheng Yu 1,2,3 , Yun Cheng 2 , Li Xie 2 , Shao-Zi Li 1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCF101 dataset contains 13,320 video clips with 101 action
+Classes
+HMDB51 dataset only has 6766 video clips with 51
+Actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCF101
+HMDB51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70-93</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -45,6 +515,39 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,7 +557,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -62,6 +565,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -88,8 +598,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,17 +652,215 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="86.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.26"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="193" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.wisdom.weizmann.ac.il/~vision/SpaceTimeActions.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
